--- a/Descargas/R15_4º Juzgado De Garantia De Santiago_Sentencias Por Delito_2020-Enero.xlsx
+++ b/Descargas/R15_4º Juzgado De Garantia De Santiago_Sentencias Por Delito_2020-Enero.xlsx
@@ -200,9 +200,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <cols>
-    <col min="1" max="1" width="45.900000000000006" customWidth="1"/>
-    <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -216,15 +215,10 @@
     <row r="2">
       <c t="inlineStr" r="A2" s="2">
         <is>
-          <t xml:space="preserve">Tribunal</t>
+          <t xml:space="preserve">Materia</t>
         </is>
       </c>
       <c t="inlineStr" r="B2" s="2">
-        <is>
-          <t xml:space="preserve">Motivo Término</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C2" s="2">
         <is>
           <t xml:space="preserve">Total</t>
         </is>
@@ -233,201 +227,456 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">4º Juzgado De Garantía De Santiago</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B3">
-        <is>
-          <t xml:space="preserve">Abandono De La Querella</t>
-        </is>
-      </c>
-      <c r="C3" s="65">
-        <v>3</v>
+          <t xml:space="preserve">Abuso Sexual Con Contacto De Menor De 14 Años. Art. 366 Bis</t>
+        </is>
+      </c>
+      <c r="B3" s="65">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">4º Juzgado De Garantía De Santiago</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B4">
-        <is>
-          <t xml:space="preserve">Absolución O Condena.</t>
-        </is>
-      </c>
-      <c r="C4" s="65">
-        <v>7</v>
+          <t xml:space="preserve">Abuso Sexual Sin Contacto Art.366 Quater, Inc. 3°, 4° Y 5°</t>
+        </is>
+      </c>
+      <c r="B4" s="65">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">4º Juzgado De Garantía De Santiago</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B5">
-        <is>
-          <t xml:space="preserve">Acoge Requerimiento (Monitorio).</t>
-        </is>
-      </c>
-      <c r="C5" s="65">
-        <v>192</v>
+          <t xml:space="preserve">Amenazas Condic.c/Personas Y Propiedades Art.296 1Y2,Art.297</t>
+        </is>
+      </c>
+      <c r="B5" s="65">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">4º Juzgado De Garantía De Santiago</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B6">
-        <is>
-          <t xml:space="preserve">Acumulación.</t>
-        </is>
-      </c>
-      <c r="C6" s="65">
-        <v>28</v>
+          <t xml:space="preserve">Amenazas De Atentados Contra Personas Y Propiedades.</t>
+        </is>
+      </c>
+      <c r="B6" s="65">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">4º Juzgado De Garantía De Santiago</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B7">
-        <is>
-          <t xml:space="preserve">Aprobación No Inicio Investigación.</t>
-        </is>
-      </c>
-      <c r="C7" s="65">
-        <v>220</v>
+          <t xml:space="preserve">Amenazas Simples Contra Personas Y Propiedades Art. 296 Nº3.</t>
+        </is>
+      </c>
+      <c r="B7" s="65">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">4º Juzgado De Garantía De Santiago</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B8">
-        <is>
-          <t xml:space="preserve">Comunica Y/O Aplica Decisión Ppio. De Oportunidad.</t>
-        </is>
-      </c>
-      <c r="C8" s="65">
-        <v>61</v>
+          <t xml:space="preserve">Cohecho Cometido Por Empleado Público.art.248,248 Bis Y 249.</t>
+        </is>
+      </c>
+      <c r="B8" s="65">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">4º Juzgado De Garantía De Santiago</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B9">
-        <is>
-          <t xml:space="preserve">Declara Inadmisibilidad De La Querella.</t>
-        </is>
-      </c>
-      <c r="C9" s="65">
-        <v>6</v>
+          <t xml:space="preserve">Conduc.ebriedad Susp.lic. Art.196Y209 Inc.2 Ley.transito.</t>
+        </is>
+      </c>
+      <c r="B9" s="65">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">4º Juzgado De Garantía De Santiago</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B10">
-        <is>
-          <t xml:space="preserve">Declara Incompetencia Rpa</t>
-        </is>
-      </c>
-      <c r="C10" s="65">
-        <v>4</v>
+          <t xml:space="preserve">Conduc.estado De Ebriedad Con O Sin Daños O Lesiones Leves.</t>
+        </is>
+      </c>
+      <c r="B10" s="65">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">4º Juzgado De Garantía De Santiago</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B11">
-        <is>
-          <t xml:space="preserve">Declara Incompetencia.</t>
-        </is>
-      </c>
-      <c r="C11" s="65">
-        <v>28</v>
+          <t xml:space="preserve">Conduc.estado De Ebriedad Con Resultado De Daños.art. 19.</t>
+        </is>
+      </c>
+      <c r="B11" s="65">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">4º Juzgado De Garantía De Santiago</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B12">
-        <is>
-          <t xml:space="preserve">Declara Sobreseimiento Definitivo.</t>
-        </is>
-      </c>
-      <c r="C12" s="65">
-        <v>211</v>
+          <t xml:space="preserve">Conduc.sin La Licencia Debida Art 194 Ley De Transito.</t>
+        </is>
+      </c>
+      <c r="B12" s="65">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">4º Juzgado De Garantía De Santiago</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B13">
-        <is>
-          <t xml:space="preserve">Desistimiento Querella.</t>
-        </is>
-      </c>
-      <c r="C13" s="65">
+          <t xml:space="preserve">Conduc.vehic Durante Vig Alg.sanci Impuest Art209 Ley 18290.</t>
+        </is>
+      </c>
+      <c r="B13" s="65">
         <v>2</v>
       </c>
     </row>
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">4º Juzgado De Garantía De Santiago</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B14">
-        <is>
-          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
-        </is>
-      </c>
-      <c r="C14" s="65">
-        <v>130</v>
+          <t xml:space="preserve">Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
+        </is>
+      </c>
+      <c r="B14" s="65">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">4º Juzgado De Garantía De Santiago</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B15">
-        <is>
-          <t xml:space="preserve">Sentencia.</t>
-        </is>
-      </c>
-      <c r="C15" s="65">
+          <t xml:space="preserve">Cuasidelito De Homicidio.</t>
+        </is>
+      </c>
+      <c r="B15" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c t="inlineStr" r="A16">
+        <is>
+          <t xml:space="preserve">Cuasidelito De Lesiones: Art 490, 491 Inc 2° Y 492.</t>
+        </is>
+      </c>
+      <c r="B16" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c t="inlineStr" r="A17">
+        <is>
+          <t xml:space="preserve">Cultivo/Cosecha Espec.vegetales Productoras Estupef.(Art.8.</t>
+        </is>
+      </c>
+      <c r="B17" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c t="inlineStr" r="A18">
+        <is>
+          <t xml:space="preserve">Daño Falta (495 Nr 21 Codigo Penal).</t>
+        </is>
+      </c>
+      <c r="B18" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c t="inlineStr" r="A19">
+        <is>
+          <t xml:space="preserve">Estafas Y Otras Defraudaciones Contra Particulares</t>
+        </is>
+      </c>
+      <c r="B19" s="65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c t="inlineStr" r="A20">
+        <is>
+          <t xml:space="preserve">Falsificacion O Uso Malicioso De Documentos Privados.</t>
+        </is>
+      </c>
+      <c r="B20" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c t="inlineStr" r="A21">
+        <is>
+          <t xml:space="preserve">Homicidio Calificado.</t>
+        </is>
+      </c>
+      <c r="B21" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c t="inlineStr" r="A22">
+        <is>
+          <t xml:space="preserve">Hurto Agravado (Art. 447 Codigo Penal).</t>
+        </is>
+      </c>
+      <c r="B22" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c t="inlineStr" r="A23">
+        <is>
+          <t xml:space="preserve">Hurto Falta (494 Bis Codigo Penal).</t>
+        </is>
+      </c>
+      <c r="B23" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c t="inlineStr" r="A24">
+        <is>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
+        </is>
+      </c>
+      <c r="B24" s="65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c t="inlineStr" r="A25">
+        <is>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
+        </is>
+      </c>
+      <c r="B25" s="65">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c t="inlineStr" r="A26">
+        <is>
+          <t xml:space="preserve">Injuria (Accion Privada).</t>
+        </is>
+      </c>
+      <c r="B26" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c t="inlineStr" r="A27">
+        <is>
+          <t xml:space="preserve">Lesiones Leves.</t>
+        </is>
+      </c>
+      <c r="B27" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c t="inlineStr" r="A28">
+        <is>
+          <t xml:space="preserve">Lesiones Menos Graves.</t>
+        </is>
+      </c>
+      <c r="B28" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c t="inlineStr" r="A29">
+        <is>
+          <t xml:space="preserve">Negativa A Efectuarse Examen. Art. 195 Bis Ley  De Transito</t>
+        </is>
+      </c>
+      <c r="B29" s="65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c t="inlineStr" r="A30">
+        <is>
+          <t xml:space="preserve">Obstruccion A La Investigación.</t>
+        </is>
+      </c>
+      <c r="B30" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c t="inlineStr" r="A31">
+        <is>
+          <t xml:space="preserve">Ocult Ident En Control Prevent Art 496 N: 5 Y 12 Ley 20931</t>
+        </is>
+      </c>
+      <c r="B31" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c t="inlineStr" r="A32">
+        <is>
+          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
+        </is>
+      </c>
+      <c r="B32" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c t="inlineStr" r="A33">
+        <is>
+          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
+        </is>
+      </c>
+      <c r="B33" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c t="inlineStr" r="A34">
+        <is>
+          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
+        </is>
+      </c>
+      <c r="B34" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c t="inlineStr" r="A35">
+        <is>
+          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
+        </is>
+      </c>
+      <c r="B35" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c t="inlineStr" r="A36">
+        <is>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+        </is>
+      </c>
+      <c r="B36" s="65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c t="inlineStr" r="A37">
+        <is>
+          <t xml:space="preserve">Robo Con Intimidacion.</t>
+        </is>
+      </c>
+      <c r="B37" s="65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c t="inlineStr" r="A38">
+        <is>
+          <t xml:space="preserve">Robo Con Retencion De Victimas O Lesiones Graves Art.433 N:3</t>
+        </is>
+      </c>
+      <c r="B38" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c t="inlineStr" r="A39">
+        <is>
+          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+        </is>
+      </c>
+      <c r="B39" s="65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c t="inlineStr" r="A40">
+        <is>
+          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
+        </is>
+      </c>
+      <c r="B40" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c t="inlineStr" r="A41">
+        <is>
+          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
+        </is>
+      </c>
+      <c r="B41" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c t="inlineStr" r="A42">
+        <is>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+        </is>
+      </c>
+      <c r="B42" s="65">
         <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c t="inlineStr" r="A43">
+        <is>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
+        </is>
+      </c>
+      <c r="B43" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c t="inlineStr" r="A44">
+        <is>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+        </is>
+      </c>
+      <c r="B44" s="65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c t="inlineStr" r="A45">
+        <is>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+        </is>
+      </c>
+      <c r="B45" s="65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c t="inlineStr" r="A46">
+        <is>
+          <t xml:space="preserve">Uso Fraudulento De Tarjetas De Crédito Y Débito.</t>
+        </is>
+      </c>
+      <c r="B46" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c t="inlineStr" r="A47">
+        <is>
+          <t xml:space="preserve">Violación De Mayor De 14 Años.</t>
+        </is>
+      </c>
+      <c r="B47" s="65">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
 </worksheet>
 </file>